--- a/resources/Tripadvisor Lodging by Japan prefecture.xlsx
+++ b/resources/Tripadvisor Lodging by Japan prefecture.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15620"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -161,8 +156,7 @@
     <t>Lodging in Ishikawa Prefecture</t>
   </si>
   <si>
-    <t xml:space="preserve">Lodging in Gifu Prefecture </t>
-    <phoneticPr fontId="2"/>
+    <t>Lodging in Gifu Prefecture</t>
   </si>
 </sst>
 </file>
@@ -532,249 +526,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1">
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18" customHeight="1">
+    <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" customHeight="1">
+    <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18" customHeight="1">
+    <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18" customHeight="1">
+    <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" customHeight="1">
+    <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18" customHeight="1">
+    <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18" customHeight="1">
+    <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18" customHeight="1">
+    <row r="9" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18" customHeight="1">
+    <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" customHeight="1">
+    <row r="11" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18" customHeight="1">
+    <row r="12" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18" customHeight="1">
+    <row r="13" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18" customHeight="1">
+    <row r="14" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18" customHeight="1">
+    <row r="15" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18" customHeight="1">
+    <row r="16" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1">
+    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1">
+    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1">
+    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" customHeight="1">
+    <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1">
+    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" customHeight="1">
+    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" customHeight="1">
+    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" customHeight="1">
+    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" customHeight="1">
+    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" customHeight="1">
+    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" customHeight="1">
+    <row r="27" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" customHeight="1">
+    <row r="28" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" customHeight="1">
+    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18" customHeight="1">
+    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18" customHeight="1">
+    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" customHeight="1">
+    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1">
+    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1">
+    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18" customHeight="1">
+    <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" customHeight="1">
+    <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" customHeight="1">
+    <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" customHeight="1">
+    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" customHeight="1">
+    <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" customHeight="1">
+    <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" customHeight="1">
+    <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" customHeight="1">
+    <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" customHeight="1">
+    <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" customHeight="1">
+    <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" customHeight="1">
+    <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" customHeight="1">
+    <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" customHeight="1">
+    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -828,51 +819,35 @@
     <hyperlink ref="A45" r:id="rId44" display="http://www.tripadvisor.com/AllLocations-g298246-c1-Hotels-Iwate_Prefecture_Tohoku.html"/>
     <hyperlink ref="A47" r:id="rId45" display="http://www.tripadvisor.com/AllLocations-g298250-c1-Hotels-Yamagata_Prefecture_Tohoku.html"/>
     <hyperlink ref="A2" r:id="rId46" display="http://www.tripadvisor.com/AllLocations-g298114-c1-Hotels-Ishikawa_Prefecture_Chubu.html"/>
+    <hyperlink ref="A8" r:id="rId47" display="http://www.tripadvisor.com/AllLocations-g298111-c1-Hotels-Gifu_Prefecture_Chubu.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/resources/Tripadvisor Lodging by Japan prefecture.xlsx
+++ b/resources/Tripadvisor Lodging by Japan prefecture.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -526,246 +531,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" ht="18" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" ht="18" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" ht="18" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" ht="18" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" ht="18" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" ht="18" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" ht="18" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="18" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="18" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="18" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="18" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="18" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" ht="18" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" ht="18" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="18" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="18" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" ht="18" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" ht="18" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="18" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" ht="18" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" ht="18" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" ht="18" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" ht="18" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" ht="18" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" ht="18" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" ht="18" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" ht="18" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" ht="18" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" ht="18" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" ht="18" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" ht="18" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" ht="18" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" ht="18" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" ht="18" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1" ht="18" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1" ht="18" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" ht="18" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -822,32 +830,49 @@
     <hyperlink ref="A8" r:id="rId47" display="http://www.tripadvisor.com/AllLocations-g298111-c1-Hotels-Gifu_Prefecture_Chubu.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>